--- a/GA/src/constants.xlsx
+++ b/GA/src/constants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawfiq/Desktop/thesis/GA/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F91CCE04-AA3D-E145-9C69-ABFE273536D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1902F1C-9BD7-7B48-B933-84BA9044822C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20780" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{D68BEC2B-5BDD-304E-9AF4-2E1334EB201D}"/>
+    <workbookView xWindow="72800" yWindow="8020" windowWidth="27640" windowHeight="16940" xr2:uid="{D68BEC2B-5BDD-304E-9AF4-2E1334EB201D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E12ABE7-C478-0F47-9948-AC936378BDD6}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="A2:B7"/>
+    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,7 +429,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -461,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -469,7 +469,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>8000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
